--- a/medicine/Enfance/Josette_Wouters/Josette_Wouters.xlsx
+++ b/medicine/Enfance/Josette_Wouters/Josette_Wouters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Josette Wouters, née à Colleret en 1944, est une romancière française. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arrivée tardivement à l'écriture, elle ne détaillera jamais sa biographie, mais chacun de ses livres révèle sous une forme romanesque une partie de ce qu'elle a vécu ou dont elle a été témoin. 
 Elle a une prédilection pour les albums jeunesse. Ses contes proposent une réflexion sur un fait de société qu'elle aborde sur le mode du merveilleux.
@@ -545,35 +559,210 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans adultes
-Prends garde à toi, Marie, éditions Mondes Futuristes, 2021
+          <t>Romans adultes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prends garde à toi, Marie, éditions Mondes Futuristes, 2021
 Fallait pas jouer à ces jeux-là, éditions Nord Avril, 2020
 L'épingle de Fanny, éditions De Borée, format poche, 2018
 La Maison de Lou, éditions De Borée, 2017
 Le Passage à canote, éditions De Borée, 2015
 Le Père de Louis, éditions Oskar, 2017
 Zamir, éditions Oskar, 2015
-Chiens d'Arras, Polars en Nord, 2007
-Romans adolescents
-Le Père de Louis, éditions Oskar, 2017
-Zamir, éditions Oskar, 2015
-Policiers jeunesse, éditions Aubane
-Cheval vert en cavale, 2020
+Chiens d'Arras, Polars en Nord, 2007</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Josette_Wouters</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Josette_Wouters</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans adolescents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Père de Louis, éditions Oskar, 2017
+Zamir, éditions Oskar, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Josette_Wouters</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Josette_Wouters</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Policiers jeunesse, éditions Aubane</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cheval vert en cavale, 2020
 Nuits d'enfer à Cambrai, 2017
 Le voyage à Malo, 2016
 Le gang du Sébasto, 2015
 L'inconnu de Wazemmes, 2014
-Pas de braderie pour Charlie, 2013
-Albums illustrés, éditions Nord Avril
-Ô Jean Bart, quel bazar, 2013, illustrations Wonderjane
+Pas de braderie pour Charlie, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Josette_Wouters</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Josette_Wouters</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albums illustrés, éditions Nord Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ô Jean Bart, quel bazar, 2013, illustrations Wonderjane
 La Petite étoile froufroutante, 2013, illustrations Marina Sauty
 Le Petit poireau qui ne voulait pas devenir de la soupe, 2011, illustrations Wonderjane
 Le Premier carnaval de P'tit Chat tigrou, 2011, illustrations Wonderjane
-La Petite grenouille aux pieds bleus, 2008, illustrations Sophie Léta
-Livre illustré, éditions Nord Avril
-L'Incroyable Secret de Martin, 2015, illustrations Samuel Péreira
-Album illustré Gautier-Languereau
-L'arbre des jours heureux, 2021, illustration Madeleine Brunelet</t>
+La Petite grenouille aux pieds bleus, 2008, illustrations Sophie Léta</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Josette_Wouters</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Josette_Wouters</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Livre illustré, éditions Nord Avril</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'Incroyable Secret de Martin, 2015, illustrations Samuel Péreira</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Josette_Wouters</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Josette_Wouters</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Album illustré Gautier-Languereau</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'arbre des jours heureux, 2021, illustration Madeleine Brunelet</t>
         </is>
       </c>
     </row>
